--- a/Python-for-data-analysis-Oreillly/Pandas_ts_Q.xlsx
+++ b/Python-for-data-analysis-Oreillly/Pandas_ts_Q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olliegrainge/Documents/GitHub/learning-python/Python-for-data-analysis-Oreillly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7268E106-96C0-6840-BF97-A808F0E246FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE8B6A-96E4-7147-A485-42AA8CCB7CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{9563F760-13F0-F44F-825F-16AA23330E41}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Questions</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>converting a time or period series to one with a samller frequency or period.</t>
+  </si>
+  <si>
+    <t>how would you upsample a dataframe with a yearly index time series?</t>
+  </si>
+  <si>
+    <t>frame.resample('M').ffill()</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
   <dimension ref="B4:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="214" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,10 +942,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
+    <row r="33" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
